--- a/results/LeNet5/MNIST/K4-R2-mlp/results.xlsx
+++ b/results/LeNet5/MNIST/K4-R2-mlp/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyCourse(5 delayed 1)\erasure code\non-linear erasure code\results\LeNet5\MNIST\K4-R2-mlp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nonlinear-Erasure-Code\results\LeNet5\MNIST\K4-R2-mlp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC677EE-C7E9-4598-929F-4013035850C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63803CC7-4AC3-4AB1-8ECA-6E835E061E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +183,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,25 +474,25 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="16.640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -512,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="7">
         <v>4</v>
       </c>
@@ -539,7 +545,7 @@
         <v>3.6399999999999988E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -558,7 +564,7 @@
         <v>7.0900000000000074E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -566,18 +572,18 @@
         <v>0.99360000000000004</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="2">
+      <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="10">
         <v>0.87409999999999999</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="10">
         <f>E3-H5</f>
         <v>0.11950000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -596,7 +602,7 @@
         <v>0.2319</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -615,7 +621,7 @@
         <v>0.37190000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -634,7 +640,7 @@
         <v>0.58570000000000011</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -653,7 +659,7 @@
         <v>0.88119999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -674,7 +680,7 @@
         <v>4.7699999999999965E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -693,7 +699,7 @@
         <v>6.3099999999999934E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -701,18 +707,18 @@
         <v>0.98909999999999998</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="2">
+      <c r="G12" s="9">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="10">
         <v>0.87380000000000002</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="10">
         <f t="shared" ref="I12" si="4">E11-H12</f>
         <v>0.11529999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -731,7 +737,7 @@
         <v>0.22099999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -750,7 +756,7 @@
         <v>0.37019999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -769,7 +775,7 @@
         <v>0.52059999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -788,56 +794,56 @@
         <v>0.87559999999999993</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
